--- a/ARCHIVE/deployment/Omaha_Cal_Info_CE06ISSP_00002.xlsx
+++ b/ARCHIVE/deployment/Omaha_Cal_Info_CE06ISSP_00002.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\# OOI_Asset_Management\CE_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgarzio/Documents/repo/lgarzio/ooi-integration-fork/asset-management/ARCHIVE/deployment/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="888" yWindow="972" windowWidth="25608" windowHeight="16068" tabRatio="579"/>
+    <workbookView xWindow="40520" yWindow="2140" windowWidth="25600" windowHeight="16060" tabRatio="579" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -26,8 +26,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Asset_Cal_Info!$A$1:$I$51</definedName>
     <definedName name="Workbook1" localSheetId="1">Asset_Cal_Info!$H$5:$H$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="114">
   <si>
     <t>Ref Des</t>
   </si>
@@ -400,6 +403,9 @@
   </si>
   <si>
     <t>47° 7.8612' N</t>
+  </si>
+  <si>
+    <t>corrected cal values: [0.00283856, 0.000119430, 2.41799e-06, 231.190, -0.328248, -55.9998, 4.55859]</t>
   </si>
 </sst>
 </file>
@@ -2304,28 +2310,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
@@ -2363,7 +2369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -2406,25 +2412,25 @@
         <v>-124.26533999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
@@ -2433,7 +2439,7 @@
         <v>47.131019999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
@@ -2442,61 +2448,61 @@
         <v>-124.26533999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="4:7" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
@@ -2505,39 +2511,34 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="53" customWidth="1"/>
-    <col min="4" max="5" width="12.44140625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="53" customWidth="1"/>
+    <col min="4" max="5" width="12.5" style="53" customWidth="1"/>
     <col min="6" max="6" width="17" style="7" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="37.44140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="32.83203125" customWidth="1"/>
+    <col min="8" max="8" width="37.5" style="7" customWidth="1"/>
     <col min="9" max="9" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2566,7 +2567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="30"/>
@@ -2577,7 +2578,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>64</v>
       </c>
@@ -2594,7 +2595,7 @@
         <v>104</v>
       </c>
       <c r="F3" s="34">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>7</v>
@@ -2606,7 +2607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>64</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>104</v>
       </c>
       <c r="F4" s="34">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>8</v>
@@ -2635,7 +2636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>64</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>104</v>
       </c>
       <c r="F5" s="34">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G5" s="30" t="s">
         <v>6</v>
@@ -2660,7 +2661,9 @@
       <c r="H5" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="28" t="s">
+        <v>113</v>
+      </c>
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
@@ -2668,7 +2671,7 @@
       <c r="N5" s="28"/>
       <c r="O5" s="28"/>
     </row>
-    <row r="6" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>64</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>104</v>
       </c>
       <c r="F6" s="34">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>72</v>
@@ -2697,7 +2700,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="49"/>
@@ -2708,7 +2711,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>63</v>
       </c>
@@ -2737,7 +2740,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>63</v>
       </c>
@@ -2764,7 +2767,7 @@
       </c>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>63</v>
       </c>
@@ -2791,7 +2794,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>63</v>
       </c>
@@ -2818,7 +2821,7 @@
       </c>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>63</v>
       </c>
@@ -2845,7 +2848,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>63</v>
       </c>
@@ -2872,7 +2875,7 @@
       </c>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>63</v>
       </c>
@@ -2899,7 +2902,7 @@
       </c>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>63</v>
       </c>
@@ -2926,7 +2929,7 @@
       </c>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="49"/>
@@ -2937,7 +2940,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>65</v>
       </c>
@@ -2966,7 +2969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>65</v>
       </c>
@@ -2995,7 +2998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="49"/>
@@ -3006,7 +3009,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>66</v>
       </c>
@@ -3035,7 +3038,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>66</v>
       </c>
@@ -3064,7 +3067,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>66</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>66</v>
       </c>
@@ -3122,7 +3125,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>66</v>
       </c>
@@ -3151,7 +3154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>66</v>
       </c>
@@ -3180,7 +3183,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>66</v>
       </c>
@@ -3209,7 +3212,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="49"/>
@@ -3220,7 +3223,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>67</v>
       </c>
@@ -3247,7 +3250,7 @@
       </c>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>67</v>
       </c>
@@ -3274,7 +3277,7 @@
       </c>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>67</v>
       </c>
@@ -3301,7 +3304,7 @@
       </c>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="49"/>
@@ -3312,7 +3315,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>68</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>68</v>
       </c>
@@ -3370,7 +3373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>68</v>
       </c>
@@ -3399,7 +3402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>68</v>
       </c>
@@ -3428,7 +3431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>68</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>68</v>
       </c>
@@ -3486,7 +3489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>68</v>
       </c>
@@ -3515,7 +3518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>68</v>
       </c>
@@ -3544,7 +3547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>68</v>
       </c>
@@ -3573,7 +3576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>68</v>
       </c>
@@ -3602,7 +3605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="49"/>
@@ -3613,7 +3616,7 @@
       <c r="H42" s="19"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>69</v>
       </c>
@@ -3642,7 +3645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>69</v>
       </c>
@@ -3671,7 +3674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="49"/>
@@ -3682,7 +3685,7 @@
       <c r="H45" s="19"/>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>70</v>
       </c>
@@ -3709,7 +3712,7 @@
       </c>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>70</v>
       </c>
@@ -3736,7 +3739,7 @@
       </c>
       <c r="I47" s="16"/>
     </row>
-    <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>70</v>
       </c>
@@ -3763,7 +3766,7 @@
       </c>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="13" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="C49" s="52"/>
@@ -3774,7 +3777,7 @@
       <c r="H49" s="25"/>
       <c r="I49" s="24"/>
     </row>
-    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="26" t="s">
         <v>71</v>
       </c>
@@ -3797,22 +3800,22 @@
       <c r="H50" s="27"/>
       <c r="I50" s="16"/>
     </row>
-    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C51" s="53"/>
       <c r="D51" s="53"/>
       <c r="E51" s="53"/>
     </row>
-    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C52" s="53"/>
       <c r="D52" s="53"/>
       <c r="E52" s="53"/>
     </row>
-    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C53" s="53"/>
       <c r="D53" s="53"/>
       <c r="E53" s="53"/>
     </row>
-    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C54" s="53"/>
       <c r="D54" s="53"/>
       <c r="E54" s="53"/>
@@ -3821,11 +3824,6 @@
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="3" scale="89" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3837,9 +3835,9 @@
       <selection sqref="A1:AH86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>-2.7306E-2</v>
       </c>
@@ -3943,7 +3941,7 @@
         <v>2.2003000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-2.1257999999999999E-2</v>
       </c>
@@ -4047,7 +4045,7 @@
         <v>1.6747000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-1.2599000000000001E-2</v>
       </c>
@@ -4151,7 +4149,7 @@
         <v>1.111E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-4.3949999999999996E-3</v>
       </c>
@@ -4255,7 +4253,7 @@
         <v>3.9740000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.9880000000000002E-3</v>
       </c>
@@ -4359,7 +4357,7 @@
         <v>-3.1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7.7140000000000004E-3</v>
       </c>
@@ -4463,7 +4461,7 @@
         <v>-3.039E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.038E-2</v>
       </c>
@@ -4567,7 +4565,7 @@
         <v>-4.8900000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.0441000000000001E-2</v>
       </c>
@@ -4671,7 +4669,7 @@
         <v>-5.3030000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9.8150000000000008E-3</v>
       </c>
@@ -4775,7 +4773,7 @@
         <v>-5.378E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9.7280000000000005E-3</v>
       </c>
@@ -4879,7 +4877,7 @@
         <v>-5.0800000000000003E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9.1170000000000001E-3</v>
       </c>
@@ -4983,7 +4981,7 @@
         <v>-5.104E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9.0360000000000006E-3</v>
       </c>
@@ -5087,7 +5085,7 @@
         <v>-4.7270000000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8.0409999999999995E-3</v>
       </c>
@@ -5191,7 +5189,7 @@
         <v>-4.3819999999999996E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8.1829999999999993E-3</v>
       </c>
@@ -5295,7 +5293,7 @@
         <v>-4.5630000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8.2159999999999993E-3</v>
       </c>
@@ -5399,7 +5397,7 @@
         <v>-4.4270000000000004E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7.6169999999999996E-3</v>
       </c>
@@ -5503,7 +5501,7 @@
         <v>-4.1739999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6.7520000000000002E-3</v>
       </c>
@@ -5607,7 +5605,7 @@
         <v>-4.1269999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7.0699999999999999E-3</v>
       </c>
@@ -5711,7 +5709,7 @@
         <v>-4.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6.8310000000000003E-3</v>
       </c>
@@ -5815,7 +5813,7 @@
         <v>-4.1419999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6.4079999999999996E-3</v>
       </c>
@@ -5919,7 +5917,7 @@
         <v>-4.2430000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6.4419999999999998E-3</v>
       </c>
@@ -6023,7 +6021,7 @@
         <v>-4.2009999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6.2509999999999996E-3</v>
       </c>
@@ -6127,7 +6125,7 @@
         <v>-4.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6.1939999999999999E-3</v>
       </c>
@@ -6231,7 +6229,7 @@
         <v>-3.9050000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5.6759999999999996E-3</v>
       </c>
@@ -6335,7 +6333,7 @@
         <v>-3.9870000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5.3439999999999998E-3</v>
       </c>
@@ -6439,7 +6437,7 @@
         <v>-3.7260000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5.2090000000000001E-3</v>
       </c>
@@ -6543,7 +6541,7 @@
         <v>-3.5729999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4.9170000000000004E-3</v>
       </c>
@@ -6647,7 +6645,7 @@
         <v>-3.578E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4.7239999999999999E-3</v>
       </c>
@@ -6751,7 +6749,7 @@
         <v>-3.392E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4.0660000000000002E-3</v>
       </c>
@@ -6855,7 +6853,7 @@
         <v>-3.2490000000000002E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4.2430000000000002E-3</v>
       </c>
@@ -6959,7 +6957,7 @@
         <v>-3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3.777E-3</v>
       </c>
@@ -7063,7 +7061,7 @@
         <v>-3.0130000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3.607E-3</v>
       </c>
@@ -7167,7 +7165,7 @@
         <v>-2.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3.2729999999999999E-3</v>
       </c>
@@ -7271,7 +7269,7 @@
         <v>-2.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3.0950000000000001E-3</v>
       </c>
@@ -7375,7 +7373,7 @@
         <v>-2.2269999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3.0699999999999998E-3</v>
       </c>
@@ -7479,7 +7477,7 @@
         <v>-1.8309999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3.0349999999999999E-3</v>
       </c>
@@ -7583,7 +7581,7 @@
         <v>-1.588E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3.2399999999999998E-3</v>
       </c>
@@ -7687,7 +7685,7 @@
         <v>-1.4289999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3.1510000000000002E-3</v>
       </c>
@@ -7791,7 +7789,7 @@
         <v>-1.129E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3.0019999999999999E-3</v>
       </c>
@@ -7895,7 +7893,7 @@
         <v>-1.0009999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2.911E-3</v>
       </c>
@@ -7999,7 +7997,7 @@
         <v>-9.6299999999999999E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2.9169999999999999E-3</v>
       </c>
@@ -8103,7 +8101,7 @@
         <v>-9.0200000000000002E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2.4870000000000001E-3</v>
       </c>
@@ -8207,7 +8205,7 @@
         <v>-8.8800000000000001E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2.565E-3</v>
       </c>
@@ -8311,7 +8309,7 @@
         <v>-8.7500000000000002E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2.1519999999999998E-3</v>
       </c>
@@ -8415,7 +8413,7 @@
         <v>-9.0399999999999996E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1.918E-3</v>
       </c>
@@ -8519,7 +8517,7 @@
         <v>1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2.2130000000000001E-3</v>
       </c>
@@ -8623,7 +8621,7 @@
         <v>1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2.3509999999999998E-3</v>
       </c>
@@ -8727,7 +8725,7 @@
         <v>-8.2999999999999998E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2.6870000000000002E-3</v>
       </c>
@@ -8831,7 +8829,7 @@
         <v>-1.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2.7929999999999999E-3</v>
       </c>
@@ -8935,7 +8933,7 @@
         <v>-3.5399999999999999E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2.7260000000000001E-3</v>
       </c>
@@ -9039,7 +9037,7 @@
         <v>-4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2.859E-3</v>
       </c>
@@ -9143,7 +9141,7 @@
         <v>-4.6200000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2.8110000000000001E-3</v>
       </c>
@@ -9247,7 +9245,7 @@
         <v>-6.5300000000000004E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2.5959999999999998E-3</v>
       </c>
@@ -9351,7 +9349,7 @@
         <v>-6.4199999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2.3879999999999999E-3</v>
       </c>
@@ -9455,7 +9453,7 @@
         <v>-6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2.1250000000000002E-3</v>
       </c>
@@ -9559,7 +9557,7 @@
         <v>-7.5299999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1.838E-3</v>
       </c>
@@ -9663,7 +9661,7 @@
         <v>-7.6499999999999995E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1.5709999999999999E-3</v>
       </c>
@@ -9767,7 +9765,7 @@
         <v>-8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1.358E-3</v>
       </c>
@@ -9871,7 +9869,7 @@
         <v>-8.6399999999999997E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1.088E-3</v>
       </c>
@@ -9975,7 +9973,7 @@
         <v>-9.5699999999999995E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>8.8999999999999995E-4</v>
       </c>
@@ -10079,7 +10077,7 @@
         <v>-9.4300000000000004E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4.75E-4</v>
       </c>
@@ -10183,7 +10181,7 @@
         <v>-1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2.5300000000000002E-4</v>
       </c>
@@ -10287,7 +10285,7 @@
         <v>-1.163E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2.23E-4</v>
       </c>
@@ -10391,7 +10389,7 @@
         <v>-1.232E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-2.13E-4</v>
       </c>
@@ -10495,7 +10493,7 @@
         <v>-1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-3.5300000000000002E-4</v>
       </c>
@@ -10599,7 +10597,7 @@
         <v>-1.341E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-6.9099999999999999E-4</v>
       </c>
@@ -10703,7 +10701,7 @@
         <v>-1.371E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-6.6200000000000005E-4</v>
       </c>
@@ -10807,7 +10805,7 @@
         <v>-1.4250000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-8.6600000000000002E-4</v>
       </c>
@@ -10911,7 +10909,7 @@
         <v>-1.436E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-9.8299999999999993E-4</v>
       </c>
@@ -11015,7 +11013,7 @@
         <v>-1.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-1.134E-3</v>
       </c>
@@ -11119,7 +11117,7 @@
         <v>-1.578E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>-1.106E-3</v>
       </c>
@@ -11223,7 +11221,7 @@
         <v>-1.518E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-1.542E-3</v>
       </c>
@@ -11327,7 +11325,7 @@
         <v>-1.5120000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>-1.658E-3</v>
       </c>
@@ -11431,7 +11429,7 @@
         <v>-1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>-1.7930000000000001E-3</v>
       </c>
@@ -11535,7 +11533,7 @@
         <v>-1.3110000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>-1.9610000000000001E-3</v>
       </c>
@@ -11639,7 +11637,7 @@
         <v>-1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>-1.92E-3</v>
       </c>
@@ -11743,7 +11741,7 @@
         <v>-8.12E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>-2.1649999999999998E-3</v>
       </c>
@@ -11847,7 +11845,7 @@
         <v>-5.9800000000000001E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>-2.274E-3</v>
       </c>
@@ -11951,7 +11949,7 @@
         <v>-3.3300000000000002E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>-2.4229999999999998E-3</v>
       </c>
@@ -12055,7 +12053,7 @@
         <v>-2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-2.5240000000000002E-3</v>
       </c>
@@ -12159,7 +12157,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-2.5490000000000001E-3</v>
       </c>
@@ -12263,7 +12261,7 @@
         <v>2.6899999999999998E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>-2.5799999999999998E-3</v>
       </c>
@@ -12367,7 +12365,7 @@
         <v>4.5600000000000003E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>-2.421E-3</v>
       </c>
@@ -12471,7 +12469,7 @@
         <v>4.3100000000000001E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>-2.4420000000000002E-3</v>
       </c>
@@ -12575,7 +12573,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-2.117E-3</v>
       </c>
@@ -12679,7 +12677,7 @@
         <v>4.8200000000000001E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>-2.3029999999999999E-3</v>
       </c>
@@ -12785,11 +12783,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12801,9 +12794,9 @@
       <selection sqref="A1:AH86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>2.818E-2</v>
       </c>
@@ -12907,7 +12900,7 @@
         <v>-1.3003000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.9113999999999999E-2</v>
       </c>
@@ -13011,7 +13004,7 @@
         <v>-1.0573000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.0387E-2</v>
       </c>
@@ -13115,7 +13108,7 @@
         <v>-9.0050000000000009E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6.8069999999999997E-3</v>
       </c>
@@ -13219,7 +13212,7 @@
         <v>-8.1989999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5.4920000000000004E-3</v>
       </c>
@@ -13323,7 +13316,7 @@
         <v>-6.4209999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3.483E-3</v>
       </c>
@@ -13427,7 +13420,7 @@
         <v>-5.2810000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2.4060000000000002E-3</v>
       </c>
@@ -13531,7 +13524,7 @@
         <v>-4.2729999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.4300000000000001E-3</v>
       </c>
@@ -13635,7 +13628,7 @@
         <v>-3.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-1.129E-3</v>
       </c>
@@ -13739,7 +13732,7 @@
         <v>-2.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-1.812E-3</v>
       </c>
@@ -13843,7 +13836,7 @@
         <v>-1.8680000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-2.7070000000000002E-3</v>
       </c>
@@ -13947,7 +13940,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-4.6169999999999996E-3</v>
       </c>
@@ -14051,7 +14044,7 @@
         <v>-7.1100000000000004E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-4.8739999999999999E-3</v>
       </c>
@@ -14155,7 +14148,7 @@
         <v>-5.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-5.3109999999999997E-3</v>
       </c>
@@ -14259,7 +14252,7 @@
         <v>6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-6.7479999999999997E-3</v>
       </c>
@@ -14363,7 +14356,7 @@
         <v>9.2900000000000003E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-6.149E-3</v>
       </c>
@@ -14467,7 +14460,7 @@
         <v>1.4610000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-6.437E-3</v>
       </c>
@@ -14571,7 +14564,7 @@
         <v>1.7589999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-7.2789999999999999E-3</v>
       </c>
@@ -14675,7 +14668,7 @@
         <v>2.1549999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-7.6649999999999999E-3</v>
       </c>
@@ -14779,7 +14772,7 @@
         <v>2.1870000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-8.8280000000000008E-3</v>
       </c>
@@ -14883,7 +14876,7 @@
         <v>2.5990000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-9.3799999999999994E-3</v>
       </c>
@@ -14987,7 +14980,7 @@
         <v>2.6700000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-9.2580000000000006E-3</v>
       </c>
@@ -15091,7 +15084,7 @@
         <v>2.8349999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-1.0026E-2</v>
       </c>
@@ -15195,7 +15188,7 @@
         <v>2.7989999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-1.0159E-2</v>
       </c>
@@ -15299,7 +15292,7 @@
         <v>2.8739999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-9.9780000000000008E-3</v>
       </c>
@@ -15403,7 +15396,7 @@
         <v>2.8479999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-1.0371E-2</v>
       </c>
@@ -15507,7 +15500,7 @@
         <v>2.7680000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-1.0656000000000001E-2</v>
       </c>
@@ -15611,7 +15604,7 @@
         <v>2.8119999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-1.0642E-2</v>
       </c>
@@ -15715,7 +15708,7 @@
         <v>2.7539999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-1.0969E-2</v>
       </c>
@@ -15819,7 +15812,7 @@
         <v>2.7669999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-1.1292E-2</v>
       </c>
@@ -15923,7 +15916,7 @@
         <v>2.771E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-1.0963000000000001E-2</v>
       </c>
@@ -16027,7 +16020,7 @@
         <v>2.5690000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-1.1731999999999999E-2</v>
       </c>
@@ -16131,7 +16124,7 @@
         <v>2.506E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-1.1818E-2</v>
       </c>
@@ -16235,7 +16228,7 @@
         <v>2.369E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-1.2111E-2</v>
       </c>
@@ -16339,7 +16332,7 @@
         <v>2.212E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-1.2655E-2</v>
       </c>
@@ -16443,7 +16436,7 @@
         <v>2.1180000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-1.2838E-2</v>
       </c>
@@ -16547,7 +16540,7 @@
         <v>2.0839999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-1.2978999999999999E-2</v>
       </c>
@@ -16651,7 +16644,7 @@
         <v>2.0790000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-1.304E-2</v>
       </c>
@@ -16755,7 +16748,7 @@
         <v>2.0609999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-1.2704999999999999E-2</v>
       </c>
@@ -16859,7 +16852,7 @@
         <v>2.0560000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>-1.2663000000000001E-2</v>
       </c>
@@ -16963,7 +16956,7 @@
         <v>2.0089999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-1.2364999999999999E-2</v>
       </c>
@@ -17067,7 +17060,7 @@
         <v>2.032E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>-1.2322E-2</v>
       </c>
@@ -17171,7 +17164,7 @@
         <v>2.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>-1.1955E-2</v>
       </c>
@@ -17275,7 +17268,7 @@
         <v>2.1069999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-1.2149E-2</v>
       </c>
@@ -17379,7 +17372,7 @@
         <v>2.0170000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>-7.4850000000000003E-3</v>
       </c>
@@ -17483,7 +17476,7 @@
         <v>8.8599999999999996E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-7.2389999999999998E-3</v>
       </c>
@@ -17587,7 +17580,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>-7.123E-3</v>
       </c>
@@ -17691,7 +17684,7 @@
         <v>6.3500000000000004E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>-6.8180000000000003E-3</v>
       </c>
@@ -17795,7 +17788,7 @@
         <v>5.2599999999999999E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>-6.8339999999999998E-3</v>
       </c>
@@ -17899,7 +17892,7 @@
         <v>5.1099999999999995E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-6.881E-3</v>
       </c>
@@ -18003,7 +17996,7 @@
         <v>6.2399999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-6.9410000000000001E-3</v>
       </c>
@@ -18107,7 +18100,7 @@
         <v>6.7599999999999995E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-7.0809999999999996E-3</v>
       </c>
@@ -18211,7 +18204,7 @@
         <v>8.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>-7.2399999999999999E-3</v>
       </c>
@@ -18315,7 +18308,7 @@
         <v>9.2699999999999998E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>-7.4229999999999999E-3</v>
       </c>
@@ -18419,7 +18412,7 @@
         <v>1.114E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-7.6220000000000003E-3</v>
       </c>
@@ -18523,7 +18516,7 @@
         <v>1.3140000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>-7.8150000000000008E-3</v>
       </c>
@@ -18627,7 +18620,7 @@
         <v>1.4549999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>-8.0059999999999992E-3</v>
       </c>
@@ -18731,7 +18724,7 @@
         <v>1.5709999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-8.1650000000000004E-3</v>
       </c>
@@ -18835,7 +18828,7 @@
         <v>1.604E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-8.2880000000000002E-3</v>
       </c>
@@ -18939,7 +18932,7 @@
         <v>1.784E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-8.456E-3</v>
       </c>
@@ -19043,7 +19036,7 @@
         <v>1.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>-8.6499999999999997E-3</v>
       </c>
@@ -19147,7 +19140,7 @@
         <v>1.897E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>-8.6359999999999996E-3</v>
       </c>
@@ -19251,7 +19244,7 @@
         <v>1.7960000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>-8.2819999999999994E-3</v>
       </c>
@@ -19355,7 +19348,7 @@
         <v>1.9239999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-8.7810000000000006E-3</v>
       </c>
@@ -19459,7 +19452,7 @@
         <v>1.9659999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-8.659E-3</v>
       </c>
@@ -19563,7 +19556,7 @@
         <v>1.9350000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-8.5939999999999992E-3</v>
       </c>
@@ -19667,7 +19660,7 @@
         <v>1.9689999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-8.9849999999999999E-3</v>
       </c>
@@ -19771,7 +19764,7 @@
         <v>1.884E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-8.744E-3</v>
       </c>
@@ -19875,7 +19868,7 @@
         <v>1.934E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-8.9210000000000001E-3</v>
       </c>
@@ -19979,7 +19972,7 @@
         <v>1.913E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-8.9890000000000005E-3</v>
       </c>
@@ -20083,7 +20076,7 @@
         <v>1.8760000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>-9.1999999999999998E-3</v>
       </c>
@@ -20187,7 +20180,7 @@
         <v>1.8259999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-9.391E-3</v>
       </c>
@@ -20291,7 +20284,7 @@
         <v>1.7700000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>-9.4769999999999993E-3</v>
       </c>
@@ -20395,7 +20388,7 @@
         <v>1.686E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>-9.5189999999999997E-3</v>
       </c>
@@ -20499,7 +20492,7 @@
         <v>1.614E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>-9.5060000000000006E-3</v>
       </c>
@@ -20603,7 +20596,7 @@
         <v>1.4649999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>-9.6299999999999997E-3</v>
       </c>
@@ -20707,7 +20700,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>-9.3120000000000008E-3</v>
       </c>
@@ -20811,7 +20804,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>-9.6340000000000002E-3</v>
       </c>
@@ -20915,7 +20908,7 @@
         <v>1.4059999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>-9.502E-3</v>
       </c>
@@ -21019,7 +21012,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-9.3539999999999995E-3</v>
       </c>
@@ -21123,7 +21116,7 @@
         <v>1.4909999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-9.4149999999999998E-3</v>
       </c>
@@ -21227,7 +21220,7 @@
         <v>1.485E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>-9.0530000000000003E-3</v>
       </c>
@@ -21331,7 +21324,7 @@
         <v>1.5479999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>-8.7790000000000003E-3</v>
       </c>
@@ -21435,7 +21428,7 @@
         <v>1.5139999999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>-8.6960000000000006E-3</v>
       </c>
@@ -21539,7 +21532,7 @@
         <v>1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-8.8369999999999994E-3</v>
       </c>
@@ -21643,7 +21636,7 @@
         <v>1.6180000000000001E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>-2.0132000000000001E-2</v>
       </c>
@@ -21749,10 +21742,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/ARCHIVE/deployment/Omaha_Cal_Info_CE06ISSP_00002.xlsx
+++ b/ARCHIVE/deployment/Omaha_Cal_Info_CE06ISSP_00002.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgarzio/Documents/repo/lgarzio/ooi-integration-fork/asset-management/ARCHIVE/deployment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\# OOI_Asset_Management\CE_mod\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40520" yWindow="2140" windowWidth="25600" windowHeight="16060" tabRatio="579" activeTab="1"/>
+    <workbookView xWindow="888" yWindow="972" windowWidth="25608" windowHeight="16068" tabRatio="579"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -26,11 +26,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Asset_Cal_Info!$A$1:$I$51</definedName>
     <definedName name="Workbook1" localSheetId="1">Asset_Cal_Info!$H$5:$H$5</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -51,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="113">
   <si>
     <t>Ref Des</t>
   </si>
@@ -403,9 +400,6 @@
   </si>
   <si>
     <t>47° 7.8612' N</t>
-  </si>
-  <si>
-    <t>corrected cal values: [0.00283856, 0.000119430, 2.41799e-06, 231.190, -0.328248, -55.9998, 4.55859]</t>
   </si>
 </sst>
 </file>
@@ -2310,28 +2304,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="27.5" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
@@ -2369,7 +2363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -2412,25 +2406,25 @@
         <v>-124.26533999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
@@ -2439,7 +2433,7 @@
         <v>47.131019999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
@@ -2448,61 +2442,61 @@
         <v>-124.26533999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="4:7" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:7" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
@@ -2511,34 +2505,39 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="53" customWidth="1"/>
-    <col min="4" max="5" width="12.5" style="53" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="53" customWidth="1"/>
+    <col min="4" max="5" width="12.44140625" style="53" customWidth="1"/>
     <col min="6" max="6" width="17" style="7" customWidth="1"/>
-    <col min="7" max="7" width="32.83203125" customWidth="1"/>
-    <col min="8" max="8" width="37.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" customWidth="1"/>
+    <col min="8" max="8" width="37.44140625" style="7" customWidth="1"/>
     <col min="9" max="9" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2567,7 +2566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="30"/>
@@ -2578,7 +2577,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>64</v>
       </c>
@@ -2595,7 +2594,7 @@
         <v>104</v>
       </c>
       <c r="F3" s="34">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>7</v>
@@ -2607,7 +2606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>64</v>
       </c>
@@ -2624,7 +2623,7 @@
         <v>104</v>
       </c>
       <c r="F4" s="34">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>8</v>
@@ -2636,7 +2635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>64</v>
       </c>
@@ -2653,7 +2652,7 @@
         <v>104</v>
       </c>
       <c r="F5" s="34">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G5" s="30" t="s">
         <v>6</v>
@@ -2661,9 +2660,7 @@
       <c r="H5" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="28" t="s">
-        <v>113</v>
-      </c>
+      <c r="I5" s="28"/>
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
@@ -2671,7 +2668,7 @@
       <c r="N5" s="28"/>
       <c r="O5" s="28"/>
     </row>
-    <row r="6" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>64</v>
       </c>
@@ -2688,7 +2685,7 @@
         <v>104</v>
       </c>
       <c r="F6" s="34">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>72</v>
@@ -2700,7 +2697,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="49"/>
@@ -2711,7 +2708,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>63</v>
       </c>
@@ -2740,7 +2737,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>63</v>
       </c>
@@ -2767,7 +2764,7 @@
       </c>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>63</v>
       </c>
@@ -2794,7 +2791,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>63</v>
       </c>
@@ -2821,7 +2818,7 @@
       </c>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>63</v>
       </c>
@@ -2848,7 +2845,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>63</v>
       </c>
@@ -2875,7 +2872,7 @@
       </c>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>63</v>
       </c>
@@ -2902,7 +2899,7 @@
       </c>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>63</v>
       </c>
@@ -2929,7 +2926,7 @@
       </c>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="49"/>
@@ -2940,7 +2937,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>65</v>
       </c>
@@ -2969,7 +2966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>65</v>
       </c>
@@ -2998,7 +2995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="49"/>
@@ -3009,7 +3006,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>66</v>
       </c>
@@ -3038,7 +3035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>66</v>
       </c>
@@ -3067,7 +3064,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>66</v>
       </c>
@@ -3096,7 +3093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>66</v>
       </c>
@@ -3125,7 +3122,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>66</v>
       </c>
@@ -3154,7 +3151,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>66</v>
       </c>
@@ -3183,7 +3180,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>66</v>
       </c>
@@ -3212,7 +3209,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="49"/>
@@ -3223,7 +3220,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>67</v>
       </c>
@@ -3250,7 +3247,7 @@
       </c>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>67</v>
       </c>
@@ -3277,7 +3274,7 @@
       </c>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>67</v>
       </c>
@@ -3304,7 +3301,7 @@
       </c>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="49"/>
@@ -3315,7 +3312,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>68</v>
       </c>
@@ -3344,7 +3341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>68</v>
       </c>
@@ -3373,7 +3370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>68</v>
       </c>
@@ -3402,7 +3399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>68</v>
       </c>
@@ -3431,7 +3428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>68</v>
       </c>
@@ -3460,7 +3457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>68</v>
       </c>
@@ -3489,7 +3486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>68</v>
       </c>
@@ -3518,7 +3515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
         <v>68</v>
       </c>
@@ -3547,7 +3544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
         <v>68</v>
       </c>
@@ -3576,7 +3573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
         <v>68</v>
       </c>
@@ -3605,7 +3602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="49"/>
@@ -3616,7 +3613,7 @@
       <c r="H42" s="19"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>69</v>
       </c>
@@ -3645,7 +3642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>69</v>
       </c>
@@ -3674,7 +3671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="49"/>
@@ -3685,7 +3682,7 @@
       <c r="H45" s="19"/>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
         <v>70</v>
       </c>
@@ -3712,7 +3709,7 @@
       </c>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>70</v>
       </c>
@@ -3739,7 +3736,7 @@
       </c>
       <c r="I47" s="16"/>
     </row>
-    <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>70</v>
       </c>
@@ -3766,7 +3763,7 @@
       </c>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" s="13" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="C49" s="52"/>
@@ -3777,7 +3774,7 @@
       <c r="H49" s="25"/>
       <c r="I49" s="24"/>
     </row>
-    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>71</v>
       </c>
@@ -3800,22 +3797,22 @@
       <c r="H50" s="27"/>
       <c r="I50" s="16"/>
     </row>
-    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="53"/>
       <c r="D51" s="53"/>
       <c r="E51" s="53"/>
     </row>
-    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="53"/>
       <c r="D52" s="53"/>
       <c r="E52" s="53"/>
     </row>
-    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="53"/>
       <c r="D53" s="53"/>
       <c r="E53" s="53"/>
     </row>
-    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="53"/>
       <c r="D54" s="53"/>
       <c r="E54" s="53"/>
@@ -3824,6 +3821,11 @@
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="3" scale="89" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3835,9 +3837,9 @@
       <selection sqref="A1:AH86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>-2.7306E-2</v>
       </c>
@@ -3941,7 +3943,7 @@
         <v>2.2003000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-2.1257999999999999E-2</v>
       </c>
@@ -4045,7 +4047,7 @@
         <v>1.6747000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-1.2599000000000001E-2</v>
       </c>
@@ -4149,7 +4151,7 @@
         <v>1.111E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-4.3949999999999996E-3</v>
       </c>
@@ -4253,7 +4255,7 @@
         <v>3.9740000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.9880000000000002E-3</v>
       </c>
@@ -4357,7 +4359,7 @@
         <v>-3.1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7.7140000000000004E-3</v>
       </c>
@@ -4461,7 +4463,7 @@
         <v>-3.039E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.038E-2</v>
       </c>
@@ -4565,7 +4567,7 @@
         <v>-4.8900000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.0441000000000001E-2</v>
       </c>
@@ -4669,7 +4671,7 @@
         <v>-5.3030000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9.8150000000000008E-3</v>
       </c>
@@ -4773,7 +4775,7 @@
         <v>-5.378E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9.7280000000000005E-3</v>
       </c>
@@ -4877,7 +4879,7 @@
         <v>-5.0800000000000003E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9.1170000000000001E-3</v>
       </c>
@@ -4981,7 +4983,7 @@
         <v>-5.104E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9.0360000000000006E-3</v>
       </c>
@@ -5085,7 +5087,7 @@
         <v>-4.7270000000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8.0409999999999995E-3</v>
       </c>
@@ -5189,7 +5191,7 @@
         <v>-4.3819999999999996E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8.1829999999999993E-3</v>
       </c>
@@ -5293,7 +5295,7 @@
         <v>-4.5630000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8.2159999999999993E-3</v>
       </c>
@@ -5397,7 +5399,7 @@
         <v>-4.4270000000000004E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7.6169999999999996E-3</v>
       </c>
@@ -5501,7 +5503,7 @@
         <v>-4.1739999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6.7520000000000002E-3</v>
       </c>
@@ -5605,7 +5607,7 @@
         <v>-4.1269999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>7.0699999999999999E-3</v>
       </c>
@@ -5709,7 +5711,7 @@
         <v>-4.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6.8310000000000003E-3</v>
       </c>
@@ -5813,7 +5815,7 @@
         <v>-4.1419999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6.4079999999999996E-3</v>
       </c>
@@ -5917,7 +5919,7 @@
         <v>-4.2430000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6.4419999999999998E-3</v>
       </c>
@@ -6021,7 +6023,7 @@
         <v>-4.2009999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6.2509999999999996E-3</v>
       </c>
@@ -6125,7 +6127,7 @@
         <v>-4.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6.1939999999999999E-3</v>
       </c>
@@ -6229,7 +6231,7 @@
         <v>-3.9050000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5.6759999999999996E-3</v>
       </c>
@@ -6333,7 +6335,7 @@
         <v>-3.9870000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5.3439999999999998E-3</v>
       </c>
@@ -6437,7 +6439,7 @@
         <v>-3.7260000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5.2090000000000001E-3</v>
       </c>
@@ -6541,7 +6543,7 @@
         <v>-3.5729999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4.9170000000000004E-3</v>
       </c>
@@ -6645,7 +6647,7 @@
         <v>-3.578E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4.7239999999999999E-3</v>
       </c>
@@ -6749,7 +6751,7 @@
         <v>-3.392E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4.0660000000000002E-3</v>
       </c>
@@ -6853,7 +6855,7 @@
         <v>-3.2490000000000002E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4.2430000000000002E-3</v>
       </c>
@@ -6957,7 +6959,7 @@
         <v>-3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3.777E-3</v>
       </c>
@@ -7061,7 +7063,7 @@
         <v>-3.0130000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3.607E-3</v>
       </c>
@@ -7165,7 +7167,7 @@
         <v>-2.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3.2729999999999999E-3</v>
       </c>
@@ -7269,7 +7271,7 @@
         <v>-2.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3.0950000000000001E-3</v>
       </c>
@@ -7373,7 +7375,7 @@
         <v>-2.2269999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3.0699999999999998E-3</v>
       </c>
@@ -7477,7 +7479,7 @@
         <v>-1.8309999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3.0349999999999999E-3</v>
       </c>
@@ -7581,7 +7583,7 @@
         <v>-1.588E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3.2399999999999998E-3</v>
       </c>
@@ -7685,7 +7687,7 @@
         <v>-1.4289999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3.1510000000000002E-3</v>
       </c>
@@ -7789,7 +7791,7 @@
         <v>-1.129E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3.0019999999999999E-3</v>
       </c>
@@ -7893,7 +7895,7 @@
         <v>-1.0009999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2.911E-3</v>
       </c>
@@ -7997,7 +7999,7 @@
         <v>-9.6299999999999999E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2.9169999999999999E-3</v>
       </c>
@@ -8101,7 +8103,7 @@
         <v>-9.0200000000000002E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2.4870000000000001E-3</v>
       </c>
@@ -8205,7 +8207,7 @@
         <v>-8.8800000000000001E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2.565E-3</v>
       </c>
@@ -8309,7 +8311,7 @@
         <v>-8.7500000000000002E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2.1519999999999998E-3</v>
       </c>
@@ -8413,7 +8415,7 @@
         <v>-9.0399999999999996E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1.918E-3</v>
       </c>
@@ -8517,7 +8519,7 @@
         <v>1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2.2130000000000001E-3</v>
       </c>
@@ -8621,7 +8623,7 @@
         <v>1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2.3509999999999998E-3</v>
       </c>
@@ -8725,7 +8727,7 @@
         <v>-8.2999999999999998E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2.6870000000000002E-3</v>
       </c>
@@ -8829,7 +8831,7 @@
         <v>-1.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2.7929999999999999E-3</v>
       </c>
@@ -8933,7 +8935,7 @@
         <v>-3.5399999999999999E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2.7260000000000001E-3</v>
       </c>
@@ -9037,7 +9039,7 @@
         <v>-4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2.859E-3</v>
       </c>
@@ -9141,7 +9143,7 @@
         <v>-4.6200000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2.8110000000000001E-3</v>
       </c>
@@ -9245,7 +9247,7 @@
         <v>-6.5300000000000004E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2.5959999999999998E-3</v>
       </c>
@@ -9349,7 +9351,7 @@
         <v>-6.4199999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2.3879999999999999E-3</v>
       </c>
@@ -9453,7 +9455,7 @@
         <v>-6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2.1250000000000002E-3</v>
       </c>
@@ -9557,7 +9559,7 @@
         <v>-7.5299999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1.838E-3</v>
       </c>
@@ -9661,7 +9663,7 @@
         <v>-7.6499999999999995E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1.5709999999999999E-3</v>
       </c>
@@ -9765,7 +9767,7 @@
         <v>-8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1.358E-3</v>
       </c>
@@ -9869,7 +9871,7 @@
         <v>-8.6399999999999997E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1.088E-3</v>
       </c>
@@ -9973,7 +9975,7 @@
         <v>-9.5699999999999995E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>8.8999999999999995E-4</v>
       </c>
@@ -10077,7 +10079,7 @@
         <v>-9.4300000000000004E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4.75E-4</v>
       </c>
@@ -10181,7 +10183,7 @@
         <v>-1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2.5300000000000002E-4</v>
       </c>
@@ -10285,7 +10287,7 @@
         <v>-1.163E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2.23E-4</v>
       </c>
@@ -10389,7 +10391,7 @@
         <v>-1.232E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>-2.13E-4</v>
       </c>
@@ -10493,7 +10495,7 @@
         <v>-1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>-3.5300000000000002E-4</v>
       </c>
@@ -10597,7 +10599,7 @@
         <v>-1.341E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>-6.9099999999999999E-4</v>
       </c>
@@ -10701,7 +10703,7 @@
         <v>-1.371E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>-6.6200000000000005E-4</v>
       </c>
@@ -10805,7 +10807,7 @@
         <v>-1.4250000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>-8.6600000000000002E-4</v>
       </c>
@@ -10909,7 +10911,7 @@
         <v>-1.436E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>-9.8299999999999993E-4</v>
       </c>
@@ -11013,7 +11015,7 @@
         <v>-1.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>-1.134E-3</v>
       </c>
@@ -11117,7 +11119,7 @@
         <v>-1.578E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>-1.106E-3</v>
       </c>
@@ -11221,7 +11223,7 @@
         <v>-1.518E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>-1.542E-3</v>
       </c>
@@ -11325,7 +11327,7 @@
         <v>-1.5120000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>-1.658E-3</v>
       </c>
@@ -11429,7 +11431,7 @@
         <v>-1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>-1.7930000000000001E-3</v>
       </c>
@@ -11533,7 +11535,7 @@
         <v>-1.3110000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>-1.9610000000000001E-3</v>
       </c>
@@ -11637,7 +11639,7 @@
         <v>-1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>-1.92E-3</v>
       </c>
@@ -11741,7 +11743,7 @@
         <v>-8.12E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>-2.1649999999999998E-3</v>
       </c>
@@ -11845,7 +11847,7 @@
         <v>-5.9800000000000001E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>-2.274E-3</v>
       </c>
@@ -11949,7 +11951,7 @@
         <v>-3.3300000000000002E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>-2.4229999999999998E-3</v>
       </c>
@@ -12053,7 +12055,7 @@
         <v>-2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>-2.5240000000000002E-3</v>
       </c>
@@ -12157,7 +12159,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>-2.5490000000000001E-3</v>
       </c>
@@ -12261,7 +12263,7 @@
         <v>2.6899999999999998E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>-2.5799999999999998E-3</v>
       </c>
@@ -12365,7 +12367,7 @@
         <v>4.5600000000000003E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>-2.421E-3</v>
       </c>
@@ -12469,7 +12471,7 @@
         <v>4.3100000000000001E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>-2.4420000000000002E-3</v>
       </c>
@@ -12573,7 +12575,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>-2.117E-3</v>
       </c>
@@ -12677,7 +12679,7 @@
         <v>4.8200000000000001E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>-2.3029999999999999E-3</v>
       </c>
@@ -12783,6 +12785,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12794,9 +12801,9 @@
       <selection sqref="A1:AH86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>2.818E-2</v>
       </c>
@@ -12900,7 +12907,7 @@
         <v>-1.3003000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.9113999999999999E-2</v>
       </c>
@@ -13004,7 +13011,7 @@
         <v>-1.0573000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.0387E-2</v>
       </c>
@@ -13108,7 +13115,7 @@
         <v>-9.0050000000000009E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6.8069999999999997E-3</v>
       </c>
@@ -13212,7 +13219,7 @@
         <v>-8.1989999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5.4920000000000004E-3</v>
       </c>
@@ -13316,7 +13323,7 @@
         <v>-6.4209999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3.483E-3</v>
       </c>
@@ -13420,7 +13427,7 @@
         <v>-5.2810000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.4060000000000002E-3</v>
       </c>
@@ -13524,7 +13531,7 @@
         <v>-4.2729999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.4300000000000001E-3</v>
       </c>
@@ -13628,7 +13635,7 @@
         <v>-3.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-1.129E-3</v>
       </c>
@@ -13732,7 +13739,7 @@
         <v>-2.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-1.812E-3</v>
       </c>
@@ -13836,7 +13843,7 @@
         <v>-1.8680000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-2.7070000000000002E-3</v>
       </c>
@@ -13940,7 +13947,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-4.6169999999999996E-3</v>
       </c>
@@ -14044,7 +14051,7 @@
         <v>-7.1100000000000004E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-4.8739999999999999E-3</v>
       </c>
@@ -14148,7 +14155,7 @@
         <v>-5.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-5.3109999999999997E-3</v>
       </c>
@@ -14252,7 +14259,7 @@
         <v>6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-6.7479999999999997E-3</v>
       </c>
@@ -14356,7 +14363,7 @@
         <v>9.2900000000000003E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-6.149E-3</v>
       </c>
@@ -14460,7 +14467,7 @@
         <v>1.4610000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-6.437E-3</v>
       </c>
@@ -14564,7 +14571,7 @@
         <v>1.7589999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-7.2789999999999999E-3</v>
       </c>
@@ -14668,7 +14675,7 @@
         <v>2.1549999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-7.6649999999999999E-3</v>
       </c>
@@ -14772,7 +14779,7 @@
         <v>2.1870000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-8.8280000000000008E-3</v>
       </c>
@@ -14876,7 +14883,7 @@
         <v>2.5990000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-9.3799999999999994E-3</v>
       </c>
@@ -14980,7 +14987,7 @@
         <v>2.6700000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-9.2580000000000006E-3</v>
       </c>
@@ -15084,7 +15091,7 @@
         <v>2.8349999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-1.0026E-2</v>
       </c>
@@ -15188,7 +15195,7 @@
         <v>2.7989999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-1.0159E-2</v>
       </c>
@@ -15292,7 +15299,7 @@
         <v>2.8739999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-9.9780000000000008E-3</v>
       </c>
@@ -15396,7 +15403,7 @@
         <v>2.8479999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-1.0371E-2</v>
       </c>
@@ -15500,7 +15507,7 @@
         <v>2.7680000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-1.0656000000000001E-2</v>
       </c>
@@ -15604,7 +15611,7 @@
         <v>2.8119999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-1.0642E-2</v>
       </c>
@@ -15708,7 +15715,7 @@
         <v>2.7539999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-1.0969E-2</v>
       </c>
@@ -15812,7 +15819,7 @@
         <v>2.7669999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-1.1292E-2</v>
       </c>
@@ -15916,7 +15923,7 @@
         <v>2.771E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-1.0963000000000001E-2</v>
       </c>
@@ -16020,7 +16027,7 @@
         <v>2.5690000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>-1.1731999999999999E-2</v>
       </c>
@@ -16124,7 +16131,7 @@
         <v>2.506E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>-1.1818E-2</v>
       </c>
@@ -16228,7 +16235,7 @@
         <v>2.369E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>-1.2111E-2</v>
       </c>
@@ -16332,7 +16339,7 @@
         <v>2.212E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>-1.2655E-2</v>
       </c>
@@ -16436,7 +16443,7 @@
         <v>2.1180000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>-1.2838E-2</v>
       </c>
@@ -16540,7 +16547,7 @@
         <v>2.0839999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>-1.2978999999999999E-2</v>
       </c>
@@ -16644,7 +16651,7 @@
         <v>2.0790000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>-1.304E-2</v>
       </c>
@@ -16748,7 +16755,7 @@
         <v>2.0609999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>-1.2704999999999999E-2</v>
       </c>
@@ -16852,7 +16859,7 @@
         <v>2.0560000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>-1.2663000000000001E-2</v>
       </c>
@@ -16956,7 +16963,7 @@
         <v>2.0089999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>-1.2364999999999999E-2</v>
       </c>
@@ -17060,7 +17067,7 @@
         <v>2.032E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>-1.2322E-2</v>
       </c>
@@ -17164,7 +17171,7 @@
         <v>2.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>-1.1955E-2</v>
       </c>
@@ -17268,7 +17275,7 @@
         <v>2.1069999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>-1.2149E-2</v>
       </c>
@@ -17372,7 +17379,7 @@
         <v>2.0170000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>-7.4850000000000003E-3</v>
       </c>
@@ -17476,7 +17483,7 @@
         <v>8.8599999999999996E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>-7.2389999999999998E-3</v>
       </c>
@@ -17580,7 +17587,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>-7.123E-3</v>
       </c>
@@ -17684,7 +17691,7 @@
         <v>6.3500000000000004E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>-6.8180000000000003E-3</v>
       </c>
@@ -17788,7 +17795,7 @@
         <v>5.2599999999999999E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>-6.8339999999999998E-3</v>
       </c>
@@ -17892,7 +17899,7 @@
         <v>5.1099999999999995E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>-6.881E-3</v>
       </c>
@@ -17996,7 +18003,7 @@
         <v>6.2399999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>-6.9410000000000001E-3</v>
       </c>
@@ -18100,7 +18107,7 @@
         <v>6.7599999999999995E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>-7.0809999999999996E-3</v>
       </c>
@@ -18204,7 +18211,7 @@
         <v>8.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>-7.2399999999999999E-3</v>
       </c>
@@ -18308,7 +18315,7 @@
         <v>9.2699999999999998E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>-7.4229999999999999E-3</v>
       </c>
@@ -18412,7 +18419,7 @@
         <v>1.114E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>-7.6220000000000003E-3</v>
       </c>
@@ -18516,7 +18523,7 @@
         <v>1.3140000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>-7.8150000000000008E-3</v>
       </c>
@@ -18620,7 +18627,7 @@
         <v>1.4549999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>-8.0059999999999992E-3</v>
       </c>
@@ -18724,7 +18731,7 @@
         <v>1.5709999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>-8.1650000000000004E-3</v>
       </c>
@@ -18828,7 +18835,7 @@
         <v>1.604E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>-8.2880000000000002E-3</v>
       </c>
@@ -18932,7 +18939,7 @@
         <v>1.784E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>-8.456E-3</v>
       </c>
@@ -19036,7 +19043,7 @@
         <v>1.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>-8.6499999999999997E-3</v>
       </c>
@@ -19140,7 +19147,7 @@
         <v>1.897E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>-8.6359999999999996E-3</v>
       </c>
@@ -19244,7 +19251,7 @@
         <v>1.7960000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>-8.2819999999999994E-3</v>
       </c>
@@ -19348,7 +19355,7 @@
         <v>1.9239999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>-8.7810000000000006E-3</v>
       </c>
@@ -19452,7 +19459,7 @@
         <v>1.9659999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>-8.659E-3</v>
       </c>
@@ -19556,7 +19563,7 @@
         <v>1.9350000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>-8.5939999999999992E-3</v>
       </c>
@@ -19660,7 +19667,7 @@
         <v>1.9689999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>-8.9849999999999999E-3</v>
       </c>
@@ -19764,7 +19771,7 @@
         <v>1.884E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>-8.744E-3</v>
       </c>
@@ -19868,7 +19875,7 @@
         <v>1.934E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>-8.9210000000000001E-3</v>
       </c>
@@ -19972,7 +19979,7 @@
         <v>1.913E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>-8.9890000000000005E-3</v>
       </c>
@@ -20076,7 +20083,7 @@
         <v>1.8760000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>-9.1999999999999998E-3</v>
       </c>
@@ -20180,7 +20187,7 @@
         <v>1.8259999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>-9.391E-3</v>
       </c>
@@ -20284,7 +20291,7 @@
         <v>1.7700000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>-9.4769999999999993E-3</v>
       </c>
@@ -20388,7 +20395,7 @@
         <v>1.686E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>-9.5189999999999997E-3</v>
       </c>
@@ -20492,7 +20499,7 @@
         <v>1.614E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>-9.5060000000000006E-3</v>
       </c>
@@ -20596,7 +20603,7 @@
         <v>1.4649999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>-9.6299999999999997E-3</v>
       </c>
@@ -20700,7 +20707,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>-9.3120000000000008E-3</v>
       </c>
@@ -20804,7 +20811,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>-9.6340000000000002E-3</v>
       </c>
@@ -20908,7 +20915,7 @@
         <v>1.4059999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>-9.502E-3</v>
       </c>
@@ -21012,7 +21019,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>-9.3539999999999995E-3</v>
       </c>
@@ -21116,7 +21123,7 @@
         <v>1.4909999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>-9.4149999999999998E-3</v>
       </c>
@@ -21220,7 +21227,7 @@
         <v>1.485E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>-9.0530000000000003E-3</v>
       </c>
@@ -21324,7 +21331,7 @@
         <v>1.5479999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>-8.7790000000000003E-3</v>
       </c>
@@ -21428,7 +21435,7 @@
         <v>1.5139999999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>-8.6960000000000006E-3</v>
       </c>
@@ -21532,7 +21539,7 @@
         <v>1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>-8.8369999999999994E-3</v>
       </c>
@@ -21636,7 +21643,7 @@
         <v>1.6180000000000001E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>-2.0132000000000001E-2</v>
       </c>
@@ -21742,5 +21749,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>